--- a/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_af_df_wind.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_af_df_wind.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008726003490401396</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.008635578583765112</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01301342008946726</v>
+        <v>0.008866615265998464</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02268760907504364</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.02245250431778929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.08840914931894027</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1678998292544108</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -549,16 +549,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04066693777958512</v>
+        <v>0.01285016705217171</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5497382198952858</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5288461538461542</v>
+        <v>0.5440414507772044</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01396160558464224</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.01381692573402418</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02521350142334282</v>
+        <v>0.01297866872269343</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0461538461538462</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.001028013364173734</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.05812291567413057</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="8">
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.173076923076923</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.08866615265998369</v>
       </c>
       <c r="G8" t="n">
-        <v>0.356858281161067</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1039787798408486</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.001028013364173734</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1357789423535017</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="10">
@@ -750,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07108753315649873</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.06622201048118155</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -784,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01379310344827585</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.01238685088137209</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03554376657824933</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.02858504049547405</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06457242582897028</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.06390328151986178</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007726718178121188</v>
+        <v>0.002441531739912619</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02884615384615385</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.8500000000000005</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8500000000000005</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -945,28 +945,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07678883071553222</v>
+        <v>0.04895104895104895</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06730769230769232</v>
+        <v>0.07599309153713292</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08222811671087529</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2143147620984125</v>
+        <v>0.06772038036494485</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0738446879466413</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03863359089060588</v>
+        <v>0.01285016705217171</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009549071618037133</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.008099094807050979</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09947643979057581</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.09844559585492217</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1081,22 +1081,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03664921465968586</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007957559681697613</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1728344855632359</v>
+        <v>0.05461320997172994</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.007146260123868511</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06108202443280973</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.06044905008635574</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09124668435013251</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1240341602277341</v>
+        <v>0.03919300950912382</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.08194378275369228</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04363001745200697</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.04317789291882555</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.1072988948856317</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4752418895845144</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01803713527851458</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.01381610290614579</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05676392572944307</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.007320048800325336</v>
+        <v>0.002313030069390902</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.05097665555026206</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005305039787798408</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0004764173415912339</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02864721485411138</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.02572653644592665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03607427055702917</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01830012200081334</v>
+        <v>0.005782575173477255</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.03239637922820392</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02705570291777186</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005286701911346075</v>
+        <v>0.001670521716782318</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.02429728442115294</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0461538461538462</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008540056933712891</v>
+        <v>0.002698535080956052</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.04144830871843738</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05994694960212213</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.05383515959980947</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01396160558464224</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.01381692573402418</v>
       </c>
       <c r="D32" t="n">
         <v>0.6666666666666666</v>
@@ -1501,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2362749084993883</v>
+        <v>0.07465947057311723</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1532,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1994694960212211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.1738923296808005</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2285714285714286</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008726003490401396</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.008635578583765112</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01545343635624238</v>
+        <v>0.004883063479825238</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03289124668435011</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.02953787517865652</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1615,176 +1615,6 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
